--- a/data/trans_orig/P17G-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P17G-Habitat-trans_orig.xlsx
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5847</v>
+        <v>5813</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01505510933619767</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04604978807017749</v>
+        <v>0.04578369080739033</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5837</v>
+        <v>5872</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.005604661717076172</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01711347768908883</v>
+        <v>0.01721689102117413</v>
       </c>
     </row>
     <row r="6">
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6383</v>
+        <v>5365</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.007929170094472695</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05026796213166396</v>
+        <v>0.04224927264428696</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -875,19 +875,19 @@
         <v>4228</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1092</v>
+        <v>987</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11316</v>
+        <v>10301</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01974920194025357</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005099587548365926</v>
+        <v>0.004607765927542577</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05285270003286741</v>
+        <v>0.048110736713201</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -896,19 +896,19 @@
         <v>5235</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1893</v>
+        <v>1969</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12341</v>
+        <v>12004</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01534888318458781</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005551504458004106</v>
+        <v>0.005773553549885514</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03618265857607803</v>
+        <v>0.03519530653893004</v>
       </c>
     </row>
     <row r="7">
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4800</v>
+        <v>4773</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007476878811049885</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0378010725336757</v>
+        <v>0.03758689816768813</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -946,19 +946,19 @@
         <v>3655</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>935</v>
+        <v>904</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9106</v>
+        <v>8909</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01707274627621282</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004365791299190655</v>
+        <v>0.004223206421174616</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04253173348082413</v>
+        <v>0.0416127208586252</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -967,19 +967,19 @@
         <v>4605</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1801</v>
+        <v>1788</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10088</v>
+        <v>10180</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01350043140136658</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00528060240047283</v>
+        <v>0.005243674857420154</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02957606714175643</v>
+        <v>0.02984623226449712</v>
       </c>
     </row>
     <row r="8">
@@ -996,19 +996,19 @@
         <v>123106</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>117151</v>
+        <v>117380</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>126018</v>
+        <v>125969</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9695388417582798</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9226350653304684</v>
+        <v>0.9244406040218215</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9924694106866062</v>
+        <v>0.9920859175909064</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>211</v>
@@ -1017,19 +1017,19 @@
         <v>206217</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>198842</v>
+        <v>199275</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>210507</v>
+        <v>210522</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9631780517835336</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9287285762101316</v>
+        <v>0.9307527213869216</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9832124807322958</v>
+        <v>0.9832842280601657</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>337</v>
@@ -1038,19 +1038,19 @@
         <v>329325</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>321595</v>
+        <v>321263</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>335019</v>
+        <v>334490</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9655460236969694</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9428843716756541</v>
+        <v>0.9419103661709731</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9822422752249141</v>
+        <v>0.980689588581836</v>
       </c>
     </row>
     <row r="9">
@@ -1189,19 +1189,19 @@
         <v>4277</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1075</v>
+        <v>1096</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9742</v>
+        <v>10485</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02255048935296658</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005668348038381382</v>
+        <v>0.005779707719731408</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05136492569675976</v>
+        <v>0.055280932230035</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5429</v>
+        <v>6065</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.00325338907307083</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01766016632256916</v>
+        <v>0.01972748181002495</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1231,19 +1231,19 @@
         <v>5277</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2078</v>
+        <v>1983</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12300</v>
+        <v>12281</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01061644995604561</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004180970737748663</v>
+        <v>0.003989458883167898</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02474350270705926</v>
+        <v>0.02470620065809353</v>
       </c>
     </row>
     <row r="12">
@@ -1260,19 +1260,19 @@
         <v>6942</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2933</v>
+        <v>2875</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15185</v>
+        <v>14525</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03659993119980785</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01546213438678364</v>
+        <v>0.01515620628694719</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08005847206402285</v>
+        <v>0.07657877362465838</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -1281,19 +1281,19 @@
         <v>10953</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5449</v>
+        <v>5463</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19652</v>
+        <v>21029</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03563000908458638</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01772646305770147</v>
+        <v>0.01776980288235972</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06392715635724903</v>
+        <v>0.06840453974094729</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -1302,19 +1302,19 @@
         <v>17895</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10528</v>
+        <v>10371</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>29336</v>
+        <v>28748</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03600009554745042</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02117909252794876</v>
+        <v>0.02086254499068499</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05901514544250216</v>
+        <v>0.05783244820986191</v>
       </c>
     </row>
     <row r="13">
@@ -1331,19 +1331,19 @@
         <v>4035</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1006</v>
+        <v>1051</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9113</v>
+        <v>9281</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02127575995597903</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005304651565025371</v>
+        <v>0.005540240530180805</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04804875459131531</v>
+        <v>0.0489332263128635</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1352,19 +1352,19 @@
         <v>9282</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4452</v>
+        <v>4437</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18408</v>
+        <v>18538</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03019364424085604</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01448080416887933</v>
+        <v>0.01443144542883513</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0598788067850551</v>
+        <v>0.06030357664679926</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -1373,19 +1373,19 @@
         <v>13317</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7146</v>
+        <v>7287</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23024</v>
+        <v>22900</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02679090890837281</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01437480001065743</v>
+        <v>0.01466017791145044</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04631692366947623</v>
+        <v>0.04606765992908633</v>
       </c>
     </row>
     <row r="14">
@@ -1402,19 +1402,19 @@
         <v>174416</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>165316</v>
+        <v>165268</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>181481</v>
+        <v>181190</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9195738194912465</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8715957967534899</v>
+        <v>0.8713386056812282</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9568192123126339</v>
+        <v>0.9552865649774019</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>269</v>
@@ -1423,19 +1423,19 @@
         <v>286183</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>274828</v>
+        <v>274602</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>294221</v>
+        <v>293690</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9309229576014868</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8939844480468924</v>
+        <v>0.8932499388818275</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.957067817480789</v>
+        <v>0.9553414323580509</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>436</v>
@@ -1444,19 +1444,19 @@
         <v>460600</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>447069</v>
+        <v>448128</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>471873</v>
+        <v>471906</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9265925455881312</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8993727901720229</v>
+        <v>0.9015023521191983</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9492713675489519</v>
+        <v>0.9493374902979544</v>
       </c>
     </row>
     <row r="15">
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7128</v>
+        <v>6944</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01418712481911032</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04955722234096855</v>
+        <v>0.04827833048481121</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1616,19 +1616,19 @@
         <v>2898</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8647</v>
+        <v>7692</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01454959204764053</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004702837146303119</v>
+        <v>0.004667470944814045</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04341824326898079</v>
+        <v>0.03862128849001042</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1637,19 +1637,19 @@
         <v>4938</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1937</v>
+        <v>1930</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11003</v>
+        <v>11027</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01439758676322117</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005646848987676454</v>
+        <v>0.005626543621979413</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03207964555172597</v>
+        <v>0.03214942933728523</v>
       </c>
     </row>
     <row r="18">
@@ -1666,19 +1666,19 @@
         <v>11308</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5593</v>
+        <v>5669</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19440</v>
+        <v>20787</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07861486397642664</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0388841830382986</v>
+        <v>0.03941421451510892</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1351509697286696</v>
+        <v>0.1445174178366666</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -1687,19 +1687,19 @@
         <v>5138</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1960</v>
+        <v>1982</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11404</v>
+        <v>11311</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02580126335338296</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.009842286460414669</v>
+        <v>0.009950187220395213</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05726473908934569</v>
+        <v>0.05679651978976701</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>15</v>
@@ -1708,19 +1708,19 @@
         <v>16446</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9554</v>
+        <v>9298</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>27835</v>
+        <v>25785</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04794932461803533</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02785428257994717</v>
+        <v>0.02710741275764739</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08115317589712857</v>
+        <v>0.07517601474967622</v>
       </c>
     </row>
     <row r="19">
@@ -1737,19 +1737,19 @@
         <v>4614</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1684</v>
+        <v>1654</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9344</v>
+        <v>9964</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0320779843938568</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01170840968130795</v>
+        <v>0.01149685808521205</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06496033629155767</v>
+        <v>0.06927201850000492</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1758,19 +1758,19 @@
         <v>8578</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4024</v>
+        <v>4051</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16262</v>
+        <v>16317</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04307502714001379</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02020710762046984</v>
+        <v>0.02034146841233552</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08165380327111692</v>
+        <v>0.08193453107855074</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -1779,19 +1779,19 @@
         <v>13192</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6962</v>
+        <v>7009</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22402</v>
+        <v>21876</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03846327612136398</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02029847395077881</v>
+        <v>0.02043389238738154</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06531431799556139</v>
+        <v>0.06378075713040979</v>
       </c>
     </row>
     <row r="20">
@@ -1808,19 +1808,19 @@
         <v>125875</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>116599</v>
+        <v>116262</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>132833</v>
+        <v>133276</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8751200268106062</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8106296636548678</v>
+        <v>0.8082876643624176</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9234980258787286</v>
+        <v>0.9265738047573374</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>187</v>
@@ -1829,19 +1829,19 @@
         <v>182538</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>172367</v>
+        <v>173444</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>189154</v>
+        <v>188952</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9165741174589628</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8655049262665272</v>
+        <v>0.8709120765146527</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9497972351063312</v>
+        <v>0.9487813764031228</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>305</v>
@@ -1850,19 +1850,19 @@
         <v>308412</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>294254</v>
+        <v>294638</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>318268</v>
+        <v>318714</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8991898124973795</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8579118548438835</v>
+        <v>0.8590312069544923</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9279251664481092</v>
+        <v>0.9292248877660365</v>
       </c>
     </row>
     <row r="21">
@@ -2001,19 +2001,19 @@
         <v>7067</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3478</v>
+        <v>2784</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13407</v>
+        <v>13351</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03617832128000707</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01780790416761164</v>
+        <v>0.01425111461403531</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06863989103564218</v>
+        <v>0.06835115479395032</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -2022,19 +2022,19 @@
         <v>6045</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2847</v>
+        <v>2832</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12855</v>
+        <v>12845</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01844676423302289</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00868642115224696</v>
+        <v>0.008642026867496802</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03922754123773899</v>
+        <v>0.03919688237602024</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -2043,19 +2043,19 @@
         <v>13112</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>7475</v>
+        <v>7538</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>21911</v>
+        <v>21040</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02506872123730272</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01429162227079517</v>
+        <v>0.01441151680176097</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04189291240606091</v>
+        <v>0.04022774420541204</v>
       </c>
     </row>
     <row r="24">
@@ -2072,19 +2072,19 @@
         <v>10060</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5148</v>
+        <v>4847</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18001</v>
+        <v>17863</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05150413322893858</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02635745386961843</v>
+        <v>0.02481593491196245</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09216078308631179</v>
+        <v>0.09145164201379573</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -2093,19 +2093,19 @@
         <v>9069</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3992</v>
+        <v>4092</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16539</v>
+        <v>16371</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02767646988835526</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0121830647275148</v>
+        <v>0.012486031979926</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05047083127733519</v>
+        <v>0.04995659153688818</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
@@ -2114,19 +2114,19 @@
         <v>19130</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11539</v>
+        <v>11738</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>29819</v>
+        <v>28721</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0365750545831852</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02206194578257985</v>
+        <v>0.0224421417672701</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05701363230615351</v>
+        <v>0.05491338087258921</v>
       </c>
     </row>
     <row r="25">
@@ -2143,19 +2143,19 @@
         <v>7558</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3399</v>
+        <v>3413</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15725</v>
+        <v>14138</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03869361682953866</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01740179249783507</v>
+        <v>0.01747197125089658</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08050528409881878</v>
+        <v>0.07238369811203435</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2164,19 +2164,19 @@
         <v>4240</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1230</v>
+        <v>1014</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11771</v>
+        <v>10037</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01293919157224464</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003753341087618062</v>
+        <v>0.00309377314220326</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03592183643876704</v>
+        <v>0.03062945878442564</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -2185,19 +2185,19 @@
         <v>11798</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6740</v>
+        <v>6059</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21943</v>
+        <v>19873</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02255733713452317</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01288641862151374</v>
+        <v>0.01158487535583984</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04195444829779545</v>
+        <v>0.03799674751967475</v>
       </c>
     </row>
     <row r="26">
@@ -2214,19 +2214,19 @@
         <v>170641</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>159429</v>
+        <v>160610</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>178141</v>
+        <v>178687</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8736239286615157</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8162194643507238</v>
+        <v>0.8222675457755563</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9120176448570154</v>
+        <v>0.914815726222871</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>294</v>
@@ -2235,19 +2235,19 @@
         <v>308342</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>297908</v>
+        <v>298342</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>315768</v>
+        <v>315920</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9409375743063773</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9090952717620803</v>
+        <v>0.9104192304152151</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9635985253550439</v>
+        <v>0.9640599043098981</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>480</v>
@@ -2256,19 +2256,19 @@
         <v>478984</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>463808</v>
+        <v>465702</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>490094</v>
+        <v>490844</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9157988870449889</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8867824922346111</v>
+        <v>0.8904036153508578</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9370401652021224</v>
+        <v>0.9384751524918187</v>
       </c>
     </row>
     <row r="27">
@@ -2407,19 +2407,19 @@
         <v>15296</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9205</v>
+        <v>9425</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>24519</v>
+        <v>24342</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02332386797424452</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01403617033009172</v>
+        <v>0.01437169656645596</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03738792803970827</v>
+        <v>0.03711703020435182</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -2428,19 +2428,19 @@
         <v>9943</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4929</v>
+        <v>4948</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17778</v>
+        <v>17453</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.009483952115142682</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.00470182886608674</v>
+        <v>0.004719709935001228</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01695740308424813</v>
+        <v>0.01664736418188976</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>26</v>
@@ -2449,19 +2449,19 @@
         <v>25239</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>16852</v>
+        <v>16602</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>36077</v>
+        <v>35530</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01480988457494396</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.009888620961759449</v>
+        <v>0.009741673960506196</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02116960569378013</v>
+        <v>0.02084898111166362</v>
       </c>
     </row>
     <row r="30">
@@ -2478,19 +2478,19 @@
         <v>29317</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>20040</v>
+        <v>19449</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>43841</v>
+        <v>43230</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04470294321960423</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03055833424119112</v>
+        <v>0.02965643157008722</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06685007321882756</v>
+        <v>0.06591788072560775</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>27</v>
@@ -2499,19 +2499,19 @@
         <v>29390</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>20563</v>
+        <v>18782</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>43101</v>
+        <v>42541</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02803357608954066</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01961472738437193</v>
+        <v>0.01791569032327071</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04111199274630005</v>
+        <v>0.0405786095821051</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>54</v>
@@ -2520,19 +2520,19 @@
         <v>58706</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>43668</v>
+        <v>46153</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>76015</v>
+        <v>75897</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03444834944410292</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02562427833536458</v>
+        <v>0.02708237143815595</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04460489506928217</v>
+        <v>0.0445360340455689</v>
       </c>
     </row>
     <row r="31">
@@ -2549,19 +2549,19 @@
         <v>17157</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10296</v>
+        <v>11033</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>26837</v>
+        <v>27769</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02616104975674262</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0156999504656786</v>
+        <v>0.01682366633487204</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04092195906006568</v>
+        <v>0.04234319513103865</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>24</v>
@@ -2570,19 +2570,19 @@
         <v>25756</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>17066</v>
+        <v>17664</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>38129</v>
+        <v>38386</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02456769482075709</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.016279046732432</v>
+        <v>0.01684874432611952</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03637023898634975</v>
+        <v>0.03661470292531629</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>42</v>
@@ -2591,19 +2591,19 @@
         <v>42913</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>31089</v>
+        <v>31506</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>57769</v>
+        <v>58851</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02518085611884179</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01824289222176927</v>
+        <v>0.01848768863886615</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03389824998157272</v>
+        <v>0.03453307454121545</v>
       </c>
     </row>
     <row r="32">
@@ -2620,19 +2620,19 @@
         <v>594040</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>577420</v>
+        <v>576947</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>608477</v>
+        <v>607897</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9058121390494086</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8804698146954999</v>
+        <v>0.8797487139837572</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9278268039867597</v>
+        <v>0.9269419439024092</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>961</v>
@@ -2641,19 +2641,19 @@
         <v>983282</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>965394</v>
+        <v>965423</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>997440</v>
+        <v>998546</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9379147769745596</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9208525527601105</v>
+        <v>0.920880321415508</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9514194172536717</v>
+        <v>0.9524752625553232</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1558</v>
@@ -2662,19 +2662,19 @@
         <v>1577321</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1553318</v>
+        <v>1555854</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1599013</v>
+        <v>1598808</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9255609098621114</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9114757422732273</v>
+        <v>0.9129636946359428</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9382894552028648</v>
+        <v>0.938168914600453</v>
       </c>
     </row>
     <row r="33">
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4572</v>
+        <v>5478</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005229445826020704</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02609597298495616</v>
+        <v>0.03126794333428754</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4590</v>
+        <v>4671</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002244519131812166</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01124478166184577</v>
+        <v>0.01144351351110805</v>
       </c>
     </row>
     <row r="5">
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3743</v>
+        <v>4046</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.004584230336859371</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0213646374850596</v>
+        <v>0.02309755387474643</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>3571</v>
+        <v>3720</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001967587587295881</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.008748074193496259</v>
+        <v>0.009113049923219648</v>
       </c>
     </row>
     <row r="6">
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7491</v>
+        <v>7587</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01235549611282492</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0427591259255625</v>
+        <v>0.04331085364145261</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -3153,19 +3153,19 @@
         <v>3154</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8947</v>
+        <v>8545</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01353979127344332</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004219851921218621</v>
+        <v>0.004248044034938835</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03840129975885876</v>
+        <v>0.03667858072230105</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -3174,19 +3174,19 @@
         <v>5319</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11882</v>
+        <v>11976</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0130314825091582</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005056117007665872</v>
+        <v>0.005047766421899817</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02911094076072784</v>
+        <v>0.02934219659469797</v>
       </c>
     </row>
     <row r="7">
@@ -3203,19 +3203,19 @@
         <v>4032</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1040</v>
+        <v>1051</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10203</v>
+        <v>9147</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02301512062870418</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005934985716217169</v>
+        <v>0.005996457163449709</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05823965849213043</v>
+        <v>0.05221257011519691</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>4032</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10284</v>
+        <v>10236</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009878270143855747</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002509741127947086</v>
+        <v>0.002512963878052588</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02519499174025039</v>
+        <v>0.02507711918856126</v>
       </c>
     </row>
     <row r="8">
@@ -3266,19 +3266,19 @@
         <v>167271</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>160678</v>
+        <v>160930</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>171456</v>
+        <v>171344</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9548157070955908</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9171806144052319</v>
+        <v>0.9186199206858717</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9787009260949459</v>
+        <v>0.9780649055312151</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>215</v>
@@ -3287,19 +3287,19 @@
         <v>229823</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>224030</v>
+        <v>224432</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>231994</v>
+        <v>231987</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9864602087265567</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9615987002411409</v>
+        <v>0.9633214192776989</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9957801480787813</v>
+        <v>0.9957519559650612</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>371</v>
@@ -3308,19 +3308,19 @@
         <v>397094</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>389109</v>
+        <v>388687</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>402292</v>
+        <v>402189</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.972878140627878</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9533162908159901</v>
+        <v>0.9522825942152315</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9856144705524565</v>
+        <v>0.9853615722381956</v>
       </c>
     </row>
     <row r="9">
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7759</v>
+        <v>6233</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006568083441092698</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03321567108827786</v>
+        <v>0.02668328546243504</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7714</v>
+        <v>7622</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.002633669784056961</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01324064721650494</v>
+        <v>0.01308307580802578</v>
       </c>
     </row>
     <row r="12">
@@ -3522,19 +3522,19 @@
         <v>3875</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9515</v>
+        <v>9903</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01658739510857275</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003982807384987947</v>
+        <v>0.004068019945407607</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04073023614786709</v>
+        <v>0.04239121294225415</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -3543,19 +3543,19 @@
         <v>6002</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2871</v>
+        <v>2077</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12232</v>
+        <v>12411</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0172000333848676</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.00822690862044043</v>
+        <v>0.005950840348361515</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03505146856035282</v>
+        <v>0.03556379942863348</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -3564,19 +3564,19 @@
         <v>9877</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4982</v>
+        <v>4785</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17656</v>
+        <v>17685</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01695437771814147</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008551725403562957</v>
+        <v>0.008213675303490995</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03030662987191599</v>
+        <v>0.03035675472718131</v>
       </c>
     </row>
     <row r="13">
@@ -3593,19 +3593,19 @@
         <v>8834</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3167</v>
+        <v>3233</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20505</v>
+        <v>19266</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03781469199630198</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01355518106549538</v>
+        <v>0.01383838229546029</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08777782864947541</v>
+        <v>0.08247164526165135</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -3614,19 +3614,19 @@
         <v>9234</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4219</v>
+        <v>3949</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17786</v>
+        <v>16741</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02646046594926307</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01208972209643488</v>
+        <v>0.01131669431616379</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05096611380301937</v>
+        <v>0.04797029883291311</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -3635,19 +3635,19 @@
         <v>18068</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9707</v>
+        <v>10113</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29716</v>
+        <v>31226</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03101328296653045</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0166614948608398</v>
+        <v>0.01735861799363921</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05100675338184649</v>
+        <v>0.05359886405310622</v>
       </c>
     </row>
     <row r="14">
@@ -3664,19 +3664,19 @@
         <v>219361</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>206619</v>
+        <v>208335</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>226310</v>
+        <v>226000</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9390298294540326</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8844847958075428</v>
+        <v>0.8918295891526417</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9687759084483513</v>
+        <v>0.9674500375261107</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>309</v>
@@ -3685,19 +3685,19 @@
         <v>333741</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>324444</v>
+        <v>325010</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>339960</v>
+        <v>340515</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9563395006658694</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9296988138949892</v>
+        <v>0.9313195332442118</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9741599562281881</v>
+        <v>0.9757498374955009</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>511</v>
@@ -3706,19 +3706,19 @@
         <v>553103</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>539711</v>
+        <v>538128</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>563501</v>
+        <v>562972</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9493986695312712</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9264116378104029</v>
+        <v>0.9236946159327161</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.967247543900416</v>
+        <v>0.9663388640681448</v>
       </c>
     </row>
     <row r="15">
@@ -3857,19 +3857,19 @@
         <v>3870</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8852</v>
+        <v>8906</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02206568871763315</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00548477967053841</v>
+        <v>0.005493012765336162</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05047117752393693</v>
+        <v>0.05077715260012319</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -3891,19 +3891,19 @@
         <v>3870</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>986</v>
+        <v>969</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9565</v>
+        <v>8774</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.009557472248109522</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002434903361772183</v>
+        <v>0.002392114741118904</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02362018349313095</v>
+        <v>0.02166836170978704</v>
       </c>
     </row>
     <row r="18">
@@ -3920,19 +3920,19 @@
         <v>4175</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1060</v>
+        <v>1096</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10373</v>
+        <v>10261</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02380355811058033</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.006042613846953848</v>
+        <v>0.006248618344365151</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05914198241663787</v>
+        <v>0.05850248219297984</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -3941,19 +3941,19 @@
         <v>3088</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8330</v>
+        <v>8381</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01345468824634553</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.004261221364469061</v>
+        <v>0.004268044106088967</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03628884130629746</v>
+        <v>0.03651069666193667</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -3962,19 +3962,19 @@
         <v>7263</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3121</v>
+        <v>3096</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>14766</v>
+        <v>14684</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01793716952270292</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.007707649448754629</v>
+        <v>0.007644389745856235</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03646389875573104</v>
+        <v>0.03626112843568471</v>
       </c>
     </row>
     <row r="19">
@@ -3991,19 +3991,19 @@
         <v>6971</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2957</v>
+        <v>2927</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14919</v>
+        <v>15075</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03974539337140952</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01685656286881562</v>
+        <v>0.01668533766120754</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08506195218260078</v>
+        <v>0.08595198341718538</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -4012,19 +4012,19 @@
         <v>3851</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11978</v>
+        <v>11999</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01677609367656048</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004380840554814278</v>
+        <v>0.004346291606214605</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05217935495831026</v>
+        <v>0.05227404970950644</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -4033,19 +4033,19 @@
         <v>10822</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5027</v>
+        <v>5039</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20921</v>
+        <v>20008</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02672495351960723</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01241301817613305</v>
+        <v>0.01244285353592968</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05166570333985211</v>
+        <v>0.04941074765913851</v>
       </c>
     </row>
     <row r="20">
@@ -4062,19 +4062,19 @@
         <v>160378</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>151161</v>
+        <v>152294</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>166942</v>
+        <v>166592</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9143853598003771</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8618352821238525</v>
+        <v>0.8682972263233242</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9518110883544232</v>
+        <v>0.9498151331391526</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>202</v>
@@ -4083,19 +4083,19 @@
         <v>222606</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>214498</v>
+        <v>214311</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>226557</v>
+        <v>226551</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9697692180770939</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9344506339993157</v>
+        <v>0.9336353923922538</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9869812673171744</v>
+        <v>0.986957813295803</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>342</v>
@@ -4104,19 +4104,19 @@
         <v>382983</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>370630</v>
+        <v>371651</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>390746</v>
+        <v>391002</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9457804047095804</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9152738506718471</v>
+        <v>0.9177939302605922</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9649505139949845</v>
+        <v>0.9655818214262475</v>
       </c>
     </row>
     <row r="21">
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4992</v>
+        <v>4925</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.005338206008480336</v>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02703395895614539</v>
+        <v>0.0266694195254145</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10640</v>
+        <v>9849</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008399113094474681</v>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03273577575591483</v>
+        <v>0.03030250879031557</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3</v>
@@ -4297,19 +4297,19 @@
         <v>3716</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11115</v>
+        <v>10445</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.007290123075242671</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001890433798147388</v>
+        <v>0.001867361392566414</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02180678317086729</v>
+        <v>0.02049276988274796</v>
       </c>
     </row>
     <row r="24">
@@ -4326,19 +4326,19 @@
         <v>8922</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3953</v>
+        <v>4005</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16730</v>
+        <v>17792</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04831411312403967</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02140886098775508</v>
+        <v>0.02168991046264156</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09059766438738728</v>
+        <v>0.09634853471306448</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -4347,19 +4347,19 @@
         <v>6947</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2944</v>
+        <v>2966</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14198</v>
+        <v>14033</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02137277313283559</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009058821966561707</v>
+        <v>0.009126811475316004</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04368347645853366</v>
+        <v>0.04317654111691862</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -4368,19 +4368,19 @@
         <v>15868</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9096</v>
+        <v>8736</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>26345</v>
+        <v>25909</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03113382641396637</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01784551007857816</v>
+        <v>0.01714008296457278</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05168783562551161</v>
+        <v>0.05083303744504152</v>
       </c>
     </row>
     <row r="25">
@@ -4397,19 +4397,19 @@
         <v>4651</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1829</v>
+        <v>1012</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10376</v>
+        <v>9514</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02518731337316184</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009903483563378127</v>
+        <v>0.005482384354064148</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05618943450202559</v>
+        <v>0.05152324437666598</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -4418,19 +4418,19 @@
         <v>11345</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5592</v>
+        <v>4981</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19212</v>
+        <v>20932</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03490623871207901</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01720640789354899</v>
+        <v>0.01532428963023401</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05910998050617543</v>
+        <v>0.06440080911398065</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -4439,19 +4439,19 @@
         <v>15996</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9324</v>
+        <v>9288</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25486</v>
+        <v>25659</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03138499781984889</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01829395605007722</v>
+        <v>0.01822238938952424</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0500024800237041</v>
+        <v>0.05034302851265343</v>
       </c>
     </row>
     <row r="26">
@@ -4468,19 +4468,19 @@
         <v>170104</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>160754</v>
+        <v>160841</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>176106</v>
+        <v>176068</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9211603674943182</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8705261382844862</v>
+        <v>0.8709993439199529</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.953660733496405</v>
+        <v>0.9534563708631028</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>290</v>
@@ -4489,19 +4489,19 @@
         <v>304001</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>293811</v>
+        <v>292999</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>311712</v>
+        <v>311876</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9353218750606107</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9039707483815965</v>
+        <v>0.9014725051774024</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9590464102852999</v>
+        <v>0.959549362066857</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>451</v>
@@ -4510,19 +4510,19 @@
         <v>474105</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>459041</v>
+        <v>460513</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>484355</v>
+        <v>484685</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.930191052690942</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9006347417608049</v>
+        <v>0.9035233168375959</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9503008073423312</v>
+        <v>0.9509490526714538</v>
       </c>
     </row>
     <row r="27">
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4489</v>
+        <v>4607</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.001191564630159715</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.005838401360677301</v>
+        <v>0.005991775508153394</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4570</v>
+        <v>5351</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0004808157213087411</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.002398577159057381</v>
+        <v>0.002808285291247997</v>
       </c>
     </row>
     <row r="29">
@@ -4677,19 +4677,19 @@
         <v>7193</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2854</v>
+        <v>2904</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14746</v>
+        <v>14681</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.009356061432493672</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003711850492762735</v>
+        <v>0.003777359297546177</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01917961150157693</v>
+        <v>0.01909503275762039</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11139</v>
+        <v>10927</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.002401978579087664</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.009801225273559712</v>
+        <v>0.00961420095694278</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -4719,19 +4719,19 @@
         <v>9923</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4711</v>
+        <v>4935</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>19256</v>
+        <v>19039</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.00520806419003181</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002472623321473071</v>
+        <v>0.00259006015067893</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01010594563882224</v>
+        <v>0.009992375320080325</v>
       </c>
     </row>
     <row r="30">
@@ -4748,19 +4748,19 @@
         <v>19136</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11339</v>
+        <v>11836</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>28625</v>
+        <v>29965</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02488949254916242</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0147479029554216</v>
+        <v>0.01539457339645371</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03723052551841304</v>
+        <v>0.0389743861061488</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>19</v>
@@ -4769,19 +4769,19 @@
         <v>19192</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11805</v>
+        <v>12136</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>29140</v>
+        <v>28762</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01688658501357107</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01038715786325321</v>
+        <v>0.01067809581721856</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02563953669211558</v>
+        <v>0.02530690664510389</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>37</v>
@@ -4790,19 +4790,19 @@
         <v>38328</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>27490</v>
+        <v>26912</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>52549</v>
+        <v>51458</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02011588845368472</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0144278305688505</v>
+        <v>0.01412448353433677</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02757933156088027</v>
+        <v>0.02700683787906033</v>
       </c>
     </row>
     <row r="31">
@@ -4819,19 +4819,19 @@
         <v>24488</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>15088</v>
+        <v>15513</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>38087</v>
+        <v>37090</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03185009008627159</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01962480887767929</v>
+        <v>0.02017634158646506</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04953773448004373</v>
+        <v>0.04824116606633394</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>21</v>
@@ -4840,19 +4840,19 @@
         <v>24430</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>15266</v>
+        <v>14812</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>36956</v>
+        <v>38492</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0214956668140436</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01343199304223296</v>
+        <v>0.01303308988489521</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03251653787380443</v>
+        <v>0.03386861406639628</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>42</v>
@@ -4861,19 +4861,19 @@
         <v>48918</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>35317</v>
+        <v>35967</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>65687</v>
+        <v>67585</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02567384512545001</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01853553787007663</v>
+        <v>0.01887639650144667</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03447450260733684</v>
+        <v>0.03547064111416334</v>
       </c>
     </row>
     <row r="32">
@@ -4890,19 +4890,19 @@
         <v>717114</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>699917</v>
+        <v>698933</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>729680</v>
+        <v>730092</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9327127913019126</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.910344554450699</v>
+        <v>0.9090654613891606</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9490563876502506</v>
+        <v>0.949592140563198</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1016</v>
@@ -4911,19 +4911,19 @@
         <v>1090170</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1075154</v>
+        <v>1074733</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1102440</v>
+        <v>1102739</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9592157695932977</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9460039185220057</v>
+        <v>0.9456333259608901</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9700121417515931</v>
+        <v>0.9702754502164166</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1675</v>
@@ -4932,19 +4932,19 @@
         <v>1807284</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1783850</v>
+        <v>1786560</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1825310</v>
+        <v>1825703</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9485213865095248</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9362223593425698</v>
+        <v>0.937644729713787</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9579819243738011</v>
+        <v>0.9581880812185458</v>
       </c>
     </row>
     <row r="33">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7767</v>
+        <v>7103</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01049302079861494</v>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04124391265746517</v>
+        <v>0.03772031909175389</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5019</v>
+        <v>4470</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.003612017158463574</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02057918914762634</v>
+        <v>0.01832695317812924</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -5365,19 +5365,19 @@
         <v>2857</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7667</v>
+        <v>7602</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006610002507589606</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002040956601156267</v>
+        <v>0.002041900156765991</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01773871818639989</v>
+        <v>0.01758828200510524</v>
       </c>
     </row>
     <row r="6">
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5682</v>
+        <v>6198</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.005419420721823148</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0301733636848906</v>
+        <v>0.03291302464041643</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -5415,19 +5415,19 @@
         <v>6340</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2106</v>
+        <v>2603</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12904</v>
+        <v>13729</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02599432527578251</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00863415478532803</v>
+        <v>0.01067053095408116</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05290398744449706</v>
+        <v>0.05628716017363981</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -5436,19 +5436,19 @@
         <v>7361</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3042</v>
+        <v>2934</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14623</v>
+        <v>14421</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01703004249986469</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007038022589235951</v>
+        <v>0.006788705740412764</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03383201585850486</v>
+        <v>0.03336428941672748</v>
       </c>
     </row>
     <row r="7">
@@ -5465,19 +5465,19 @@
         <v>4033</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1145</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10743</v>
+        <v>9898</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0214150748224694</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006082019080692711</v>
+        <v>0.005312572309906233</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05705029359965697</v>
+        <v>0.05256311750547055</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -5486,19 +5486,19 @@
         <v>5915</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1672</v>
+        <v>2235</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13523</v>
+        <v>14262</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02425234342507111</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006856053480209547</v>
+        <v>0.009163651004099873</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05544188729153024</v>
+        <v>0.05847248976212993</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -5507,19 +5507,19 @@
         <v>9948</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5032</v>
+        <v>4509</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19664</v>
+        <v>18666</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02301617350757516</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01164147658883048</v>
+        <v>0.01043224539844929</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04549568592641972</v>
+        <v>0.04318505288906489</v>
       </c>
     </row>
     <row r="8">
@@ -5536,19 +5536,19 @@
         <v>181286</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>173749</v>
+        <v>174434</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>185318</v>
+        <v>185248</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9626724836570926</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.922653522287352</v>
+        <v>0.9262878659258813</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9840838455032139</v>
+        <v>0.9837108710877775</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>224</v>
@@ -5557,19 +5557,19 @@
         <v>230770</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>220856</v>
+        <v>221249</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>236655</v>
+        <v>236979</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9461413141406828</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9054917149564455</v>
+        <v>0.9071039264226455</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9702653167310434</v>
+        <v>0.9715945950640347</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>399</v>
@@ -5578,19 +5578,19 @@
         <v>412056</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>401638</v>
+        <v>401976</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>419672</v>
+        <v>419508</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9533437814849706</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9292400925178292</v>
+        <v>0.9300229220567617</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9709632702662007</v>
+        <v>0.9705853689704008</v>
       </c>
     </row>
     <row r="9">
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4498</v>
+        <v>5027</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003742899347029132</v>
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01711992810488602</v>
+        <v>0.0191365907287656</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5824</v>
+        <v>5513</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001612209756953289</v>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009548635460107211</v>
+        <v>0.009039195419187136</v>
       </c>
     </row>
     <row r="11">
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7604</v>
+        <v>5869</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004319286049747375</v>
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02894536111635572</v>
+        <v>0.02234007023900728</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4428</v>
+        <v>4490</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002547293684088511</v>
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0127549466267281</v>
+        <v>0.01293258161896411</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7444</v>
+        <v>6292</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003310558500020449</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01220505932577041</v>
+        <v>0.0103161517440107</v>
       </c>
     </row>
     <row r="12">
@@ -5816,19 +5816,19 @@
         <v>3657</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10275</v>
+        <v>10467</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01391932285134894</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003743360071080479</v>
+        <v>0.00375317663294754</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03911127535872186</v>
+        <v>0.03984430055331852</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -5837,19 +5837,19 @@
         <v>3584</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10416</v>
+        <v>10056</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01032332492080365</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002823562151743107</v>
+        <v>0.002798192332643475</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03000004563820208</v>
+        <v>0.02896209056066384</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -5858,19 +5858,19 @@
         <v>7241</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2688</v>
+        <v>2955</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15342</v>
+        <v>15764</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01187225862488806</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004406449625969601</v>
+        <v>0.004845706025476166</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02515526576150791</v>
+        <v>0.02584646153436947</v>
       </c>
     </row>
     <row r="13">
@@ -5887,19 +5887,19 @@
         <v>19140</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11293</v>
+        <v>11518</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31994</v>
+        <v>30348</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07285460653921352</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04298743147639596</v>
+        <v>0.0438437088500629</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.121785759018437</v>
+        <v>0.1155204255436603</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -5908,19 +5908,19 @@
         <v>9339</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4332</v>
+        <v>4293</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16654</v>
+        <v>17053</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02689954180726834</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0124778182824197</v>
+        <v>0.01236510925259323</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04796663637172591</v>
+        <v>0.04911675195373339</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -5929,19 +5929,19 @@
         <v>28479</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19100</v>
+        <v>18736</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41496</v>
+        <v>40435</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04669414403216365</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0313168466009023</v>
+        <v>0.03071971582973161</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06803660634703206</v>
+        <v>0.06629620250010745</v>
       </c>
     </row>
     <row r="14">
@@ -5958,19 +5958,19 @@
         <v>237796</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>225145</v>
+        <v>225231</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>246170</v>
+        <v>247326</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.905163885212661</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8570108394854199</v>
+        <v>0.8573372494289899</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9370391542023866</v>
+        <v>0.94144105394573</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>307</v>
@@ -5979,19 +5979,19 @@
         <v>333389</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>323884</v>
+        <v>324335</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>339380</v>
+        <v>339845</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9602298395878395</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.932854155946014</v>
+        <v>0.9341520866001016</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9774843668258612</v>
+        <v>0.9788234579965834</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>529</v>
@@ -6000,19 +6000,19 @@
         <v>571185</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>557849</v>
+        <v>556807</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>582673</v>
+        <v>581725</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9365108290859746</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.914645184993624</v>
+        <v>0.9129374257129023</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9553465359042056</v>
+        <v>0.9537935044248407</v>
       </c>
     </row>
     <row r="15">
@@ -6154,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5802</v>
+        <v>6201</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01095171975700394</v>
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03339190443058148</v>
+        <v>0.03568943819311497</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6305</v>
+        <v>7023</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.008081741819170809</v>
@@ -6184,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02542733891798802</v>
+        <v>0.02832192509599391</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -6193,19 +6193,19 @@
         <v>3907</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9703</v>
+        <v>10066</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.009264154011568122</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002276767970231191</v>
+        <v>0.002285140371734725</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0230084500381011</v>
+        <v>0.02386918292863276</v>
       </c>
     </row>
     <row r="18">
@@ -6222,19 +6222,19 @@
         <v>3937</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11405</v>
+        <v>10326</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02266024197401574</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.006274160471100928</v>
+        <v>0.006235911537326158</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06564211984704127</v>
+        <v>0.05943375056141172</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6014</v>
+        <v>6062</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.004391095651617365</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02425284544555799</v>
+        <v>0.02444502329226645</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -6264,19 +6264,19 @@
         <v>5026</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1099</v>
+        <v>1126</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>12467</v>
+        <v>13088</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01191786478511249</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.002605560489060003</v>
+        <v>0.002670202516435896</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02956169500774851</v>
+        <v>0.03103515924381782</v>
       </c>
     </row>
     <row r="19">
@@ -6293,19 +6293,19 @@
         <v>4690</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1144</v>
+        <v>1172</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12145</v>
+        <v>11781</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0269956611350379</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006582514681883711</v>
+        <v>0.006743967974608943</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06990308634743757</v>
+        <v>0.06780470244698525</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -6314,19 +6314,19 @@
         <v>12460</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6422</v>
+        <v>6761</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21211</v>
+        <v>20680</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05024739449116597</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02589938300051629</v>
+        <v>0.02726684309275347</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08553871007268758</v>
+        <v>0.0833972441611924</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -6335,19 +6335,19 @@
         <v>17150</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10485</v>
+        <v>10264</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27050</v>
+        <v>26897</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04066783199619613</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.024862517663062</v>
+        <v>0.02433730918193807</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06414196417576225</v>
+        <v>0.06377859533190509</v>
       </c>
     </row>
     <row r="20">
@@ -6364,19 +6364,19 @@
         <v>163216</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>155026</v>
+        <v>154740</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>168743</v>
+        <v>168491</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9393923771339424</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8922573332545476</v>
+        <v>0.8906123347656197</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9712059694045742</v>
+        <v>0.9697560794487036</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>213</v>
@@ -6385,19 +6385,19 @@
         <v>232421</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>223103</v>
+        <v>224182</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>239088</v>
+        <v>238907</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9372797680380458</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8997045866803461</v>
+        <v>0.9040546195323913</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9641673450879492</v>
+        <v>0.9634339849291366</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>363</v>
@@ -6406,19 +6406,19 @@
         <v>395637</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>383402</v>
+        <v>383523</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>404586</v>
+        <v>403912</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9381501492071233</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9091388539417499</v>
+        <v>0.909424683731255</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9593704181179973</v>
+        <v>0.9577730242649362</v>
       </c>
     </row>
     <row r="21">
@@ -6557,19 +6557,19 @@
         <v>5863</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2808</v>
+        <v>2002</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12156</v>
+        <v>12779</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02676683660758197</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01281931496832199</v>
+        <v>0.00913954337239639</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05549823143960454</v>
+        <v>0.05833888654693082</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5841</v>
+        <v>6135</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.003361425434233052</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01925382541152373</v>
+        <v>0.02022044592328807</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -6599,19 +6599,19 @@
         <v>6883</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2916</v>
+        <v>2951</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>13827</v>
+        <v>13911</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01317476394501836</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005581495902250361</v>
+        <v>0.00564931654506187</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02646688071164693</v>
+        <v>0.02662719806129479</v>
       </c>
     </row>
     <row r="24">
@@ -6628,19 +6628,19 @@
         <v>7586</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3229</v>
+        <v>3131</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15911</v>
+        <v>14790</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03463464588712294</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01474370724290829</v>
+        <v>0.01429226929133466</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07263935313517145</v>
+        <v>0.06751937716814314</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -6649,19 +6649,19 @@
         <v>8161</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3285</v>
+        <v>3250</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16974</v>
+        <v>15453</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0268980916816473</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01082786468380745</v>
+        <v>0.01071301844546255</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05594908665975215</v>
+        <v>0.05093607062836051</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -6670,19 +6670,19 @@
         <v>15747</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8564</v>
+        <v>8718</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>25262</v>
+        <v>26353</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03014184692965685</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01639190388581713</v>
+        <v>0.0166869213222733</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0483548470668624</v>
+        <v>0.05044370109211476</v>
       </c>
     </row>
     <row r="25">
@@ -6699,19 +6699,19 @@
         <v>17475</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10538</v>
+        <v>9924</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26659</v>
+        <v>27434</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07977817538387393</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04810819088618774</v>
+        <v>0.04530510955318877</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1217078678147103</v>
+        <v>0.1252474587678442</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -6720,19 +6720,19 @@
         <v>18499</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10876</v>
+        <v>10969</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29673</v>
+        <v>28871</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06097570252431603</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03584739376750467</v>
+        <v>0.03615630277845351</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09780556912407196</v>
+        <v>0.09516206487916674</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>33</v>
@@ -6741,19 +6741,19 @@
         <v>35974</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>25769</v>
+        <v>25444</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>49408</v>
+        <v>49010</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06885913724136117</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04932471260442408</v>
+        <v>0.04870361796794111</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09457279427952103</v>
+        <v>0.09381128697245388</v>
       </c>
     </row>
     <row r="26">
@@ -6770,19 +6770,19 @@
         <v>188118</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>177049</v>
+        <v>176797</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>197079</v>
+        <v>197851</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8588203421214212</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8082866814968113</v>
+        <v>0.8071354391486953</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8997323583285463</v>
+        <v>0.9032561105649887</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>249</v>
@@ -6791,19 +6791,19 @@
         <v>275707</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>262292</v>
+        <v>264658</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>284694</v>
+        <v>285127</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9087647803598036</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8645452383487625</v>
+        <v>0.87234614217049</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9383850878168565</v>
+        <v>0.9398129196530484</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>439</v>
@@ -6812,19 +6812,19 @@
         <v>463825</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>448868</v>
+        <v>447932</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>477349</v>
+        <v>477382</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8878242518839636</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8591947304233956</v>
+        <v>0.8574019948233511</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9137107370593518</v>
+        <v>0.9137736844404685</v>
       </c>
     </row>
     <row r="27">
@@ -6919,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6237</v>
+        <v>5827</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.001165303473275647</v>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.007391312547758788</v>
+        <v>0.006905737706233199</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -6953,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5589</v>
+        <v>5935</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0004950457306663809</v>
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.002813645692153308</v>
+        <v>0.002987815929279423</v>
       </c>
     </row>
     <row r="29">
@@ -6979,19 +6979,19 @@
         <v>10877</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5636</v>
+        <v>5928</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18951</v>
+        <v>18936</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01288981214973531</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006679107213114973</v>
+        <v>0.007025757015749682</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02245837711519329</v>
+        <v>0.02244117776055221</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -7000,19 +7000,19 @@
         <v>4789</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1876</v>
+        <v>1777</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10723</v>
+        <v>10705</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.004192062173573973</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001641793550563718</v>
+        <v>0.001555716129999574</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.00938597091544755</v>
+        <v>0.009369926222677327</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>16</v>
@@ -7021,19 +7021,19 @@
         <v>15666</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>9746</v>
+        <v>9595</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>24592</v>
+        <v>24751</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.007887051582640784</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.00490688043773222</v>
+        <v>0.004830642718802377</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01238076616568106</v>
+        <v>0.01246122625170012</v>
       </c>
     </row>
     <row r="30">
@@ -7050,19 +7050,19 @@
         <v>16201</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9502</v>
+        <v>9371</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26784</v>
+        <v>27128</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01919960225047254</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01126089503135341</v>
+        <v>0.011105371294906</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03174187085460513</v>
+        <v>0.03214926011943402</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>17</v>
@@ -7071,19 +7071,19 @@
         <v>19174</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11309</v>
+        <v>11977</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>29892</v>
+        <v>30315</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01678286141191733</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.009898532764880567</v>
+        <v>0.01048366792840422</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02616450356351042</v>
+        <v>0.0265345958805628</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>31</v>
@@ -7092,19 +7092,19 @@
         <v>35375</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>23832</v>
+        <v>24267</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>49233</v>
+        <v>49768</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0178095443848006</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01199845813921671</v>
+        <v>0.01221741234446538</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02478638978845002</v>
+        <v>0.02505590834024483</v>
       </c>
     </row>
     <row r="31">
@@ -7121,19 +7121,19 @@
         <v>45338</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>32759</v>
+        <v>32934</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>60139</v>
+        <v>61283</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05372943031032088</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03882224305012423</v>
+        <v>0.03903029029894895</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07127057759561663</v>
+        <v>0.0726259783542243</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>42</v>
@@ -7142,19 +7142,19 @@
         <v>46214</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>34090</v>
+        <v>33478</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>60918</v>
+        <v>62621</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04045115952621661</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02983895950066228</v>
+        <v>0.0293036072563355</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05332196460389197</v>
+        <v>0.05481231058923675</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>83</v>
@@ -7163,19 +7163,19 @@
         <v>91552</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>73626</v>
+        <v>72226</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>112535</v>
+        <v>112505</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04609205171700824</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03706709292610727</v>
+        <v>0.03636228897447429</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05665626970210787</v>
+        <v>0.05664130780460873</v>
       </c>
     </row>
     <row r="32">
@@ -7192,19 +7192,19 @@
         <v>770415</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>753365</v>
+        <v>751414</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>786814</v>
+        <v>785625</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9130158518161956</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8928107583081162</v>
+        <v>0.8904983171430891</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9324512523318048</v>
+        <v>0.9310421632834623</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>993</v>
@@ -7213,19 +7213,19 @@
         <v>1072288</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1053179</v>
+        <v>1051991</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1087890</v>
+        <v>1088091</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9385739168882921</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9218481908009564</v>
+        <v>0.9208079793804357</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9522301568357082</v>
+        <v>0.952406354685973</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1730</v>
@@ -7234,19 +7234,19 @@
         <v>1842702</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1818683</v>
+        <v>1819125</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1865271</v>
+        <v>1866611</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.927716306584884</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9156237564833581</v>
+        <v>0.915846107774912</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9390787007966297</v>
+        <v>0.9397533258770207</v>
       </c>
     </row>
     <row r="33">
@@ -7641,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5837</v>
+        <v>6384</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.006457579462328288</v>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0324591977755994</v>
+        <v>0.03550111532749762</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6832</v>
+        <v>6147</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003863170504558442</v>
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02273116728407595</v>
+        <v>0.02045095832303153</v>
       </c>
     </row>
     <row r="6">
@@ -7691,16 +7691,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5160</v>
+        <v>5742</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.01153234762962952</v>
+        <v>0.01153234762962953</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04273107183591641</v>
+        <v>0.04754685611949086</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -7709,19 +7709,19 @@
         <v>2506</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>871</v>
+        <v>1124</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4996</v>
+        <v>5421</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01393610715172723</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004842433493215649</v>
+        <v>0.006248993226693877</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02778286178566151</v>
+        <v>0.03014583442972846</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -7730,19 +7730,19 @@
         <v>3899</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1698</v>
+        <v>1660</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7943</v>
+        <v>7538</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01297036832143704</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005650465107635523</v>
+        <v>0.005523848080106594</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02642710963976351</v>
+        <v>0.02507727892476863</v>
       </c>
     </row>
     <row r="7">
@@ -7762,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6656</v>
+        <v>4344</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008743667550367288</v>
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05511544456877416</v>
+        <v>0.0359703342372771</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -7780,19 +7780,19 @@
         <v>1883</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4758</v>
+        <v>4568</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01047115210642718</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002588801219893906</v>
+        <v>0.002504526037577399</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02646214286477866</v>
+        <v>0.02540216127870094</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -7801,19 +7801,19 @@
         <v>2939</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>982</v>
+        <v>964</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7665</v>
+        <v>6898</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009777114745710762</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003267878590627517</v>
+        <v>0.003208053619751374</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02550083759735579</v>
+        <v>0.02294819454709003</v>
       </c>
     </row>
     <row r="8">
@@ -7830,19 +7830,19 @@
         <v>118311</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>113452</v>
+        <v>113981</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>120291</v>
+        <v>120300</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9797239848200031</v>
+        <v>0.9797239848200032</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9394795159788453</v>
+        <v>0.9438647657180672</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9961151277987509</v>
+        <v>0.9961918378293498</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>297</v>
@@ -7851,19 +7851,19 @@
         <v>174266</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>169899</v>
+        <v>169700</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>177116</v>
+        <v>176883</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9691351612795174</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9448476388008226</v>
+        <v>0.9437441506736983</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9849828526089528</v>
+        <v>0.9836871303235523</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>433</v>
@@ -7872,19 +7872,19 @@
         <v>292577</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>286036</v>
+        <v>286248</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>296058</v>
+        <v>296145</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9733893464282938</v>
+        <v>0.9733893464282939</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9516289178116285</v>
+        <v>0.9523344422466932</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9849707247190977</v>
+        <v>0.9852605930323677</v>
       </c>
     </row>
     <row r="9">
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4259</v>
+        <v>3088</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002863671283080974</v>
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01734461723292958</v>
+        <v>0.01257866794025001</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2893</v>
+        <v>3536</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001563089588610641</v>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006431021124534751</v>
+        <v>0.007860604148498764</v>
       </c>
     </row>
     <row r="11">
@@ -8039,19 +8039,19 @@
         <v>3843</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0</v>
+        <v>1105</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10217</v>
+        <v>10842</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01881176520564467</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0</v>
+        <v>0.005408204648829748</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05001064664546412</v>
+        <v>0.05307117146395182</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -8060,19 +8060,19 @@
         <v>1695</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4932</v>
+        <v>5036</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.006902560619140997</v>
+        <v>0.006902560619140995</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001630150890333094</v>
+        <v>0.001706655494689068</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02008754597695745</v>
+        <v>0.02051166197758847</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -8081,19 +8081,19 @@
         <v>5538</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2175</v>
+        <v>1901</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13138</v>
+        <v>12788</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.01231131461001267</v>
+        <v>0.01231131461001266</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004835010193904616</v>
+        <v>0.004226455849231156</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02920629324967185</v>
+        <v>0.02842999703407206</v>
       </c>
     </row>
     <row r="12">
@@ -8110,19 +8110,19 @@
         <v>10145</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4037</v>
+        <v>3959</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21052</v>
+        <v>21130</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04965990697769158</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01975923034159568</v>
+        <v>0.0193777700281016</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1030460793730903</v>
+        <v>0.1034297020182528</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -8131,19 +8131,19 @@
         <v>9432</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5659</v>
+        <v>5282</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16632</v>
+        <v>15866</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03841581669686227</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02304725972505307</v>
+        <v>0.02151204719346182</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0677405682574624</v>
+        <v>0.06461992651610786</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -8152,19 +8152,19 @@
         <v>19577</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11735</v>
+        <v>12599</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>31251</v>
+        <v>33559</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04352249848559216</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02608860375781969</v>
+        <v>0.02800995992172312</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06947528494676888</v>
+        <v>0.07460436366121191</v>
       </c>
     </row>
     <row r="13">
@@ -8181,19 +8181,19 @@
         <v>12912</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6730</v>
+        <v>7306</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21797</v>
+        <v>22280</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06320381364809666</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03294488465189046</v>
+        <v>0.03576236294329989</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1066930047438051</v>
+        <v>0.1090597462691864</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -8202,19 +8202,19 @@
         <v>8737</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4876</v>
+        <v>4955</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15025</v>
+        <v>14343</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03558519446256216</v>
+        <v>0.03558519446256214</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0198588221857374</v>
+        <v>0.02017966124282276</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06119520233859225</v>
+        <v>0.05841650159307244</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -8223,19 +8223,19 @@
         <v>21649</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14410</v>
+        <v>13760</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31739</v>
+        <v>30709</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04812862804429898</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03203448423135057</v>
+        <v>0.03058903195416785</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07055915841201711</v>
+        <v>0.06827005024733541</v>
       </c>
     </row>
     <row r="14">
@@ -8252,19 +8252,19 @@
         <v>177393</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>163996</v>
+        <v>165748</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>186643</v>
+        <v>187238</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.868324514168567</v>
+        <v>0.8683245141685672</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8027475987915301</v>
+        <v>0.8113264955645801</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9136026835004738</v>
+        <v>0.9165185526599751</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>320</v>
@@ -8273,19 +8273,19 @@
         <v>224960</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>216035</v>
+        <v>217336</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>231290</v>
+        <v>230961</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9162327569383537</v>
+        <v>0.9162327569383536</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8798827309455123</v>
+        <v>0.8851798055963159</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.942015374413651</v>
+        <v>0.9406753543078886</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>491</v>
@@ -8294,19 +8294,19 @@
         <v>402353</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>387070</v>
+        <v>386753</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>413890</v>
+        <v>413182</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8944744692714856</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8604995734928039</v>
+        <v>0.8597945131680381</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9201228484379531</v>
+        <v>0.918548850910501</v>
       </c>
     </row>
     <row r="15">
@@ -8445,19 +8445,19 @@
         <v>3515</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8753</v>
+        <v>8642</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02401754347771417</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006655707012306841</v>
+        <v>0.006675986484528978</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05981766139450868</v>
+        <v>0.05905475699569885</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -8469,16 +8469,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4869</v>
+        <v>5068</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.007997000181741265</v>
+        <v>0.007997000181741267</v>
       </c>
       <c r="O17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02708882653963569</v>
+        <v>0.02819680512960622</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -8487,19 +8487,19 @@
         <v>4952</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1866</v>
+        <v>1823</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10321</v>
+        <v>10327</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01518628256611966</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005721709628315464</v>
+        <v>0.005590833829540372</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03165138863350694</v>
+        <v>0.03166913291882823</v>
       </c>
     </row>
     <row r="18">
@@ -8516,19 +8516,19 @@
         <v>12719</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6226</v>
+        <v>6445</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24589</v>
+        <v>23285</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08691559369012454</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04254670384906531</v>
+        <v>0.04404244375397257</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1680321902274363</v>
+        <v>0.1591205480389913</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -8537,19 +8537,19 @@
         <v>11588</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7152</v>
+        <v>7021</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17968</v>
+        <v>19372</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.06446768677928869</v>
+        <v>0.0644676867792887</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0397895642809662</v>
+        <v>0.03905673486843511</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09996139564952405</v>
+        <v>0.1077695262366562</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>25</v>
@@ -8558,19 +8558,19 @@
         <v>24307</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16141</v>
+        <v>16053</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>37383</v>
+        <v>38436</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.07454127409394647</v>
+        <v>0.07454127409394648</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04949948257094231</v>
+        <v>0.04922926171642959</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1146402091728625</v>
+        <v>0.1178712536472741</v>
       </c>
     </row>
     <row r="19">
@@ -8587,19 +8587,19 @@
         <v>4467</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1346</v>
+        <v>1294</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11155</v>
+        <v>11196</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03052905615399317</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009200661951874486</v>
+        <v>0.008846226636353469</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07623270137277187</v>
+        <v>0.07651122105453978</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -8608,19 +8608,19 @@
         <v>9858</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5492</v>
+        <v>5159</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17051</v>
+        <v>16101</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05483893248326502</v>
+        <v>0.05483893248326503</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03055256015785264</v>
+        <v>0.0287010207173313</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09485613715960593</v>
+        <v>0.08957343947906742</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -8629,19 +8629,19 @@
         <v>14325</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8697</v>
+        <v>8430</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22467</v>
+        <v>23180</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04392977900253484</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02667111780607911</v>
+        <v>0.0258511789841527</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06890038591056905</v>
+        <v>0.07108527457981838</v>
       </c>
     </row>
     <row r="20">
@@ -8658,19 +8658,19 @@
         <v>125632</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>113497</v>
+        <v>114848</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>133321</v>
+        <v>134032</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8585378066781681</v>
+        <v>0.858537806678168</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7756100443601505</v>
+        <v>0.7848380765582</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9110828152781579</v>
+        <v>0.9159388567443336</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>210</v>
@@ -8679,19 +8679,19 @@
         <v>156871</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>147481</v>
+        <v>147971</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>163470</v>
+        <v>163886</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.872696380555705</v>
+        <v>0.8726963805557051</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8204608440062481</v>
+        <v>0.8231873319869454</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9094106431269134</v>
+        <v>0.9117251522916653</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>332</v>
@@ -8700,19 +8700,19 @@
         <v>282502</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>267550</v>
+        <v>267608</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>292996</v>
+        <v>293055</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8663426643373991</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8204876615833202</v>
+        <v>0.8206677663460177</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8985231978020519</v>
+        <v>0.8987041275587995</v>
       </c>
     </row>
     <row r="21">
@@ -8820,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3383</v>
+        <v>3386</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002098744010565042</v>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01052077440503508</v>
+        <v>0.01053237629848929</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -8841,16 +8841,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3380</v>
+        <v>3841</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.001247858290306735</v>
+        <v>0.001247858290306734</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.006250011037531344</v>
+        <v>0.007102635591525418</v>
       </c>
     </row>
     <row r="23">
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6080</v>
+        <v>5360</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.005572142600801773</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02773206106656638</v>
+        <v>0.02444758159404743</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -8888,19 +8888,19 @@
         <v>2788</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6307</v>
+        <v>7027</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008671722916509745</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002360008685292507</v>
+        <v>0.002277813295708528</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0196172623735304</v>
+        <v>0.02185531713645339</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -8909,19 +8909,19 @@
         <v>4010</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>8991</v>
+        <v>9369</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.007415071978542524</v>
+        <v>0.007415071978542522</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00256741119196145</v>
+        <v>0.002550542214231391</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01662682808166009</v>
+        <v>0.01732524336740762</v>
       </c>
     </row>
     <row r="24">
@@ -8938,19 +8938,19 @@
         <v>10467</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5407</v>
+        <v>5013</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19082</v>
+        <v>18505</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04774114466428726</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02466035479879706</v>
+        <v>0.02286710286866032</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08703948282471281</v>
+        <v>0.08440735309518339</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>32</v>
@@ -8959,19 +8959,19 @@
         <v>26112</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>18067</v>
+        <v>17980</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>36814</v>
+        <v>37422</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08121405342575631</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05619124775020787</v>
+        <v>0.05592273508048072</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1145001340342621</v>
+        <v>0.1163887631566072</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>42</v>
@@ -8980,19 +8980,19 @@
         <v>36579</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>26457</v>
+        <v>26462</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>51359</v>
+        <v>48616</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.06764326063860972</v>
+        <v>0.0676432606386097</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04892459471807407</v>
+        <v>0.04893363995464008</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09497483198834442</v>
+        <v>0.08990262123167325</v>
       </c>
     </row>
     <row r="25">
@@ -9009,19 +9009,19 @@
         <v>10885</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5717</v>
+        <v>6071</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17717</v>
+        <v>18417</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.04965035334921394</v>
+        <v>0.04965035334921393</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02607698378330659</v>
+        <v>0.02769040162925198</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08081104223298836</v>
+        <v>0.08400251540732365</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>23</v>
@@ -9030,19 +9030,19 @@
         <v>15208</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10086</v>
+        <v>9809</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23629</v>
+        <v>23733</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04730035809424502</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03136940781114622</v>
+        <v>0.03050752274239761</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07349072788235723</v>
+        <v>0.07381399828399565</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>36</v>
@@ -9051,19 +9051,19 @@
         <v>26093</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18251</v>
+        <v>18359</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>36682</v>
+        <v>36598</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0482531076411464</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03375084627295509</v>
+        <v>0.03394952438587188</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06783454717718312</v>
+        <v>0.06767882045236845</v>
       </c>
     </row>
     <row r="26">
@@ -9080,19 +9080,19 @@
         <v>196665</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>185694</v>
+        <v>186264</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>204285</v>
+        <v>204674</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8970363593856971</v>
+        <v>0.8970363593856969</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8469917837251368</v>
+        <v>0.8495925932968478</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9317923567402665</v>
+        <v>0.9335665587824545</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>392</v>
@@ -9101,19 +9101,19 @@
         <v>276740</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>264790</v>
+        <v>264286</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>286750</v>
+        <v>287446</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8607151215529238</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8235480977677252</v>
+        <v>0.8219812548746147</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8918496385980109</v>
+        <v>0.8940124431000932</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>608</v>
@@ -9122,19 +9122,19 @@
         <v>473406</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>457082</v>
+        <v>458912</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>487067</v>
+        <v>486734</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8754407014513946</v>
+        <v>0.8754407014513944</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8452543553401757</v>
+        <v>0.848637625778778</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9007026329353093</v>
+        <v>0.9000880331756439</v>
       </c>
     </row>
     <row r="27">
@@ -9242,16 +9242,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4196</v>
+        <v>4186</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.001487021885964802</v>
+        <v>0.001487021885964803</v>
       </c>
       <c r="O28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.004528022489978373</v>
+        <v>0.004518022260205613</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -9263,16 +9263,16 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4865</v>
+        <v>4713</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.0008520073477651509</v>
+        <v>0.000852007347765151</v>
       </c>
       <c r="V28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.003007900553873043</v>
+        <v>0.002914279692345703</v>
       </c>
     </row>
     <row r="29">
@@ -9289,19 +9289,19 @@
         <v>8579</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4108</v>
+        <v>3718</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16189</v>
+        <v>17112</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0124225129564568</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005948012420078756</v>
+        <v>0.005383817156820905</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02344166511815379</v>
+        <v>0.02477777645897943</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -9310,19 +9310,19 @@
         <v>7082</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3409</v>
+        <v>3331</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12481</v>
+        <v>12282</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.007642391785542767</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003679117454300635</v>
+        <v>0.003594547795519258</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01346978072930022</v>
+        <v>0.0132550725275813</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>18</v>
@@ -9331,19 +9331,19 @@
         <v>15661</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>9681</v>
+        <v>9275</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>26797</v>
+        <v>25283</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.009683684160951826</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005985864501909925</v>
+        <v>0.005735028874719614</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01656957581191504</v>
+        <v>0.01563354633240819</v>
       </c>
     </row>
     <row r="30">
@@ -9360,19 +9360,19 @@
         <v>34723</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>23237</v>
+        <v>22929</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>48991</v>
+        <v>51434</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05027787254579798</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03364599479002293</v>
+        <v>0.03320105141625106</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07093793154693168</v>
+        <v>0.07447440625579667</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>67</v>
@@ -9381,19 +9381,19 @@
         <v>49639</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>37857</v>
+        <v>38782</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>63604</v>
+        <v>64065</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05356952315411093</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04085448578681573</v>
+        <v>0.04185361856357514</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0686404718457216</v>
+        <v>0.06913785747978582</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>95</v>
@@ -9402,19 +9402,19 @@
         <v>84362</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>67613</v>
+        <v>68310</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>104663</v>
+        <v>105460</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.05216386395656907</v>
+        <v>0.05216386395656908</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04180780049508721</v>
+        <v>0.04223835334490707</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06471665360135147</v>
+        <v>0.06520960192287968</v>
       </c>
     </row>
     <row r="31">
@@ -9431,19 +9431,19 @@
         <v>29321</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20401</v>
+        <v>20104</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>40784</v>
+        <v>42125</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04245531159561042</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02953998423742166</v>
+        <v>0.02910973940536851</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05905336286018423</v>
+        <v>0.0609953285854327</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>53</v>
@@ -9452,19 +9452,19 @@
         <v>35686</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>27299</v>
+        <v>26971</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>46347</v>
+        <v>47597</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.03851167720165183</v>
+        <v>0.03851167720165184</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02946129009358391</v>
+        <v>0.02910709844728325</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05001753904338537</v>
+        <v>0.05136670901960955</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>84</v>
@@ -9473,19 +9473,19 @@
         <v>65006</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>50978</v>
+        <v>50897</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>80338</v>
+        <v>79733</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.04019575811340187</v>
+        <v>0.04019575811340188</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03152128672434613</v>
+        <v>0.03147136213396671</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04967598041705509</v>
+        <v>0.04930200085823461</v>
       </c>
     </row>
     <row r="32">
@@ -9502,19 +9502,19 @@
         <v>618001</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>598198</v>
+        <v>599394</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>633897</v>
+        <v>633819</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8948443029021347</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8661708594258917</v>
+        <v>0.867901476092824</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9178605162390667</v>
+        <v>0.9177478982190281</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1219</v>
@@ -9523,19 +9523,19 @@
         <v>832836</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>816522</v>
+        <v>813520</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>847499</v>
+        <v>846921</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.8987893859727295</v>
+        <v>0.8987893859727296</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8811835461371194</v>
+        <v>0.8779430478446073</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.914613535190677</v>
+        <v>0.913989103178834</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1864</v>
@@ -9544,19 +9544,19 @@
         <v>1450837</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1425121</v>
+        <v>1424831</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1473119</v>
+        <v>1473392</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.8971046864213119</v>
+        <v>0.897104686421312</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8812035965012458</v>
+        <v>0.8810240313286459</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9108826132926011</v>
+        <v>0.9110511662992901</v>
       </c>
     </row>
     <row r="33">
